--- a/ACW/TextureStatsSummary.xlsx
+++ b/ACW/TextureStatsSummary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\computer-vision\ACW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE77764-22C6-4FC4-8AAC-1E7253AD5C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A3E378-842F-4B3D-B7A2-4AE41C016406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2895" yWindow="1890" windowWidth="20790" windowHeight="11835" firstSheet="1" activeTab="2" xr2:uid="{BA8BB236-1779-4C26-9A9A-F03C654DE654}"/>
+    <workbookView xWindow="-11640" yWindow="6780" windowWidth="20790" windowHeight="11835" xr2:uid="{BA8BB236-1779-4C26-9A9A-F03C654DE654}"/>
   </bookViews>
   <sheets>
-    <sheet name="Correct" sheetId="1" r:id="rId1"/>
-    <sheet name="Incorrect" sheetId="2" r:id="rId2"/>
-    <sheet name="Compared" sheetId="3" r:id="rId3"/>
+    <sheet name="Compared" sheetId="3" r:id="rId1"/>
+    <sheet name="Correct" sheetId="1" r:id="rId2"/>
+    <sheet name="Incorrect" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
   <si>
     <t>filepath</t>
   </si>
@@ -112,26 +112,38 @@
     <t>auto-detected</t>
   </si>
   <si>
-    <t>Including advanced images</t>
+    <t>Correct/autodetected regions (wholestarfish)</t>
   </si>
   <si>
-    <t>If it's greater than this, it's not noise.</t>
+    <t>Incorrect manual regions</t>
   </si>
   <si>
-    <t>If it's less than this, it's not noise.</t>
+    <t>A</t>
   </si>
   <si>
-    <t>If it's less than this, it's noise.</t>
+    <t>B</t>
   </si>
   <si>
-    <t>If it's greater than this, it's noise.</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>SET#A + manual advanced image regions</t>
+  </si>
+  <si>
+    <t>Correct and partial regions in advanced images only</t>
+  </si>
+  <si>
+    <t>If less than this, not a starfish.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,9 +168,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,43 +183,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
-      <color theme="7"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -217,15 +222,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,11 +583,525 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625A66B9-6A59-4D5C-9B0E-A13454B3FBC1}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>220.31252325247533</v>
+      </c>
+      <c r="D4" s="5">
+        <v>36.577593059801991</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.0793641405940592E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-1.3472470102079208</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.5735327217821787E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>6.3199488411089124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9.6062635920609356</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.8443774692064547</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7.1231097413445126E-3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.64343294372730697</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.0486921388075473E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.4100583486754098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14">
+        <v>199.4109402</v>
+      </c>
+      <c r="D6" s="11">
+        <v>19.55017556</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5.8435359999999999E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-3.0882085340000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9.3671710000000005E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5.3668957439999998</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5">
+        <v>238.67970650000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>51.95383734</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.9855784999999998E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.309577353</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6.1823615999999998E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7.0313963570000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>168.16508614409835</v>
+      </c>
+      <c r="D11" s="8">
+        <v>46.841494766311477</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.6333422114754099E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <v>-0.66848496393442591</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1.4834772983606555E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>6.9887774828688531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>49.345003293072111</v>
+      </c>
+      <c r="D12" s="8">
+        <v>17.734236503436822</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.6323324107703418E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1.4044556696001986</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.5566825766152164E-2</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.66532976989741588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16">
+        <v>32.124422969999998</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9.7955170949999992</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.4734450000000001E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>-3.9014030850000001</v>
+      </c>
+      <c r="G13" s="8">
+        <v>4.2684899999999998E-3</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5.0802558209999997</v>
+      </c>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>238.58333329999999</v>
+      </c>
+      <c r="D14" s="8">
+        <v>98.529045269999997</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.129902136</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4.0084447929999998</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.111302331</v>
+      </c>
+      <c r="H14" s="8">
+        <v>7.9369336690000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4">
+        <v>149</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="10">
+        <v>204.88755248166672</v>
+      </c>
+      <c r="D18" s="10">
+        <v>40.441674293236083</v>
+      </c>
+      <c r="E18" s="10">
+        <v>2.6651996226697498E-2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>-1.0234504208746049</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2.9218358144518813E-2</v>
+      </c>
+      <c r="H18" s="10">
+        <v>6.4077720734649208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10">
+        <v>41.934595163706291</v>
+      </c>
+      <c r="D19" s="10">
+        <v>13.076179665715101</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.8410123033131477E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>2.0673210986120827</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3.3911885807401038E-2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.62422013588204472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15">
+        <v>40.9332785119731</v>
+      </c>
+      <c r="D20" s="10">
+        <v>19.55017556</v>
+      </c>
+      <c r="E20" s="10">
+        <v>5.8435359999999999E-3</v>
+      </c>
+      <c r="F20" s="10">
+        <v>-4.5844188330897904</v>
+      </c>
+      <c r="G20" s="10">
+        <v>4.3961469518238898E-3</v>
+      </c>
+      <c r="H20" s="10">
+        <v>4.8432405564219696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="10">
+        <v>238.67970650000001</v>
+      </c>
+      <c r="D21" s="10">
+        <v>96.679697068313601</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.12567859371290599</v>
+      </c>
+      <c r="F21" s="10">
+        <v>12.0185867971747</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.24332718138746501</v>
+      </c>
+      <c r="H21" s="10">
+        <v>7.9084718864582504</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5">
+        <v>123.24889323536139</v>
+      </c>
+      <c r="D25" s="5">
+        <v>62.646706023700702</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5.9699598041934955E-2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.66134639362558201</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.3291403446620628E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>7.2700851071084065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5">
+        <v>39.756470344202668</v>
+      </c>
+      <c r="D26" s="5">
+        <v>16.502054652914573</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.8526060702216017E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3.4370414297117722</v>
+      </c>
+      <c r="G26" s="5">
+        <v>5.23577621742407E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.68524584382341236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="5">
+        <v>41.150733822412697</v>
+      </c>
+      <c r="D27" s="5">
+        <v>27.768741194108198</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.1719584481345399E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-4.6580815516373404</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4.3455574909203702E-3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>4.8653428127078202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="5">
+        <v>220.64369114877601</v>
+      </c>
+      <c r="D28" s="5">
+        <v>104.448238910246</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.14366913597597999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>10.218663214573599</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.240968465346384</v>
+      </c>
+      <c r="H28" s="5">
+        <v>7.9175581471607304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22374EE9-1986-452D-ADAC-74ABECB2A235}">
   <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,27 +1191,27 @@
         <v>12</v>
       </c>
       <c r="J3" s="1">
-        <f>AVERAGE(B2:B150)</f>
+        <f t="shared" ref="J3:O3" si="0">AVERAGE(B2:B150)</f>
         <v>204.88755248166672</v>
       </c>
       <c r="K3" s="1">
-        <f>AVERAGE(C2:C150)</f>
+        <f t="shared" si="0"/>
         <v>40.441674293236083</v>
       </c>
       <c r="L3" s="1">
-        <f>AVERAGE(D2:D150)</f>
+        <f t="shared" si="0"/>
         <v>2.6651996226697498E-2</v>
       </c>
       <c r="M3" s="1">
-        <f>AVERAGE(E2:E150)</f>
+        <f t="shared" si="0"/>
         <v>-1.0234504208746049</v>
       </c>
       <c r="N3" s="1">
-        <f>AVERAGE(F2:F150)</f>
+        <f t="shared" si="0"/>
         <v>2.9218358144518813E-2</v>
       </c>
       <c r="O3" s="1">
-        <f>AVERAGE(G2:G150)</f>
+        <f t="shared" si="0"/>
         <v>6.4077720734649208</v>
       </c>
     </row>
@@ -683,27 +1241,27 @@
         <v>13</v>
       </c>
       <c r="J4" s="1">
-        <f>_xlfn.STDEV.S(B2:B150)</f>
+        <f t="shared" ref="J4:O4" si="1">_xlfn.STDEV.S(B2:B150)</f>
         <v>41.934595163706291</v>
       </c>
       <c r="K4" s="1">
-        <f>_xlfn.STDEV.S(C2:C150)</f>
+        <f t="shared" si="1"/>
         <v>13.076179665715101</v>
       </c>
       <c r="L4" s="1">
-        <f>_xlfn.STDEV.S(D2:D150)</f>
+        <f t="shared" si="1"/>
         <v>1.8410123033131477E-2</v>
       </c>
       <c r="M4" s="1">
-        <f>_xlfn.STDEV.S(E2:E150)</f>
+        <f t="shared" si="1"/>
         <v>2.0673210986120827</v>
       </c>
       <c r="N4" s="1">
-        <f>_xlfn.STDEV.S(F2:F150)</f>
+        <f t="shared" si="1"/>
         <v>3.3911885807401038E-2</v>
       </c>
       <c r="O4" s="1">
-        <f>_xlfn.STDEV.S(G2:G150)</f>
+        <f t="shared" si="1"/>
         <v>0.62422013588204472</v>
       </c>
     </row>
@@ -733,27 +1291,27 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <f>MIN(B2:B150)</f>
+        <f t="shared" ref="J5:O5" si="2">MIN(B2:B150)</f>
         <v>40.9332785119731</v>
       </c>
       <c r="K5">
-        <f>MIN(C2:C150)</f>
+        <f t="shared" si="2"/>
         <v>19.55017556</v>
       </c>
       <c r="L5">
-        <f>MIN(D2:D150)</f>
+        <f t="shared" si="2"/>
         <v>5.8435359999999999E-3</v>
       </c>
       <c r="M5">
-        <f>MIN(E2:E150)</f>
+        <f t="shared" si="2"/>
         <v>-4.5844188330897904</v>
       </c>
       <c r="N5">
-        <f>MIN(F2:F150)</f>
+        <f t="shared" si="2"/>
         <v>4.3961469518238898E-3</v>
       </c>
       <c r="O5">
-        <f>MIN(G2:G150)</f>
+        <f t="shared" si="2"/>
         <v>4.8432405564219696</v>
       </c>
     </row>
@@ -783,27 +1341,27 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <f>MAX(B2:B150)</f>
+        <f t="shared" ref="J6:O6" si="3">MAX(B2:B150)</f>
         <v>238.67970650000001</v>
       </c>
       <c r="K6">
-        <f>MAX(C2:C150)</f>
+        <f t="shared" si="3"/>
         <v>96.679697068313601</v>
       </c>
       <c r="L6">
-        <f>MAX(D2:D150)</f>
+        <f t="shared" si="3"/>
         <v>0.12567859371290599</v>
       </c>
       <c r="M6">
-        <f>MAX(E2:E150)</f>
+        <f t="shared" si="3"/>
         <v>12.0185867971747</v>
       </c>
       <c r="N6">
-        <f>MAX(F2:F150)</f>
+        <f t="shared" si="3"/>
         <v>0.24332718138746501</v>
       </c>
       <c r="O6">
-        <f>MAX(G2:G150)</f>
+        <f t="shared" si="3"/>
         <v>7.9084718864582504</v>
       </c>
     </row>
@@ -4125,7 +4683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E6130B-A502-4725-B6F8-FBB058AC42C3}">
   <dimension ref="A1:O62"/>
   <sheetViews>
@@ -4214,27 +4772,27 @@
         <v>12</v>
       </c>
       <c r="J3" s="1">
-        <f>AVERAGE(B2:B102)</f>
+        <f t="shared" ref="J3:O3" si="0">AVERAGE(B2:B102)</f>
         <v>168.16508614409835</v>
       </c>
       <c r="K3" s="1">
-        <f>AVERAGE(C2:C102)</f>
+        <f t="shared" si="0"/>
         <v>46.841494766311477</v>
       </c>
       <c r="L3" s="1">
-        <f>AVERAGE(D2:D102)</f>
+        <f t="shared" si="0"/>
         <v>3.6333422114754099E-2</v>
       </c>
       <c r="M3" s="1">
-        <f>AVERAGE(E2:E102)</f>
+        <f t="shared" si="0"/>
         <v>-0.66848496393442591</v>
       </c>
       <c r="N3" s="1">
-        <f>AVERAGE(F2:F102)</f>
+        <f t="shared" si="0"/>
         <v>1.4834772983606555E-2</v>
       </c>
       <c r="O3" s="1">
-        <f>AVERAGE(G2:G102)</f>
+        <f t="shared" si="0"/>
         <v>6.9887774828688531</v>
       </c>
     </row>
@@ -4264,27 +4822,27 @@
         <v>13</v>
       </c>
       <c r="J4" s="1">
-        <f>_xlfn.STDEV.S(B2:B102)</f>
+        <f t="shared" ref="J4:O4" si="1">_xlfn.STDEV.S(B2:B102)</f>
         <v>49.345003293072111</v>
       </c>
       <c r="K4" s="1">
-        <f>_xlfn.STDEV.S(C2:C102)</f>
+        <f t="shared" si="1"/>
         <v>17.734236503436822</v>
       </c>
       <c r="L4" s="1">
-        <f>_xlfn.STDEV.S(D2:D102)</f>
+        <f t="shared" si="1"/>
         <v>2.6323324107703418E-2</v>
       </c>
       <c r="M4" s="1">
-        <f>_xlfn.STDEV.S(E2:E102)</f>
+        <f t="shared" si="1"/>
         <v>1.4044556696001986</v>
       </c>
       <c r="N4" s="1">
-        <f>_xlfn.STDEV.S(F2:F102)</f>
+        <f t="shared" si="1"/>
         <v>1.5566825766152164E-2</v>
       </c>
       <c r="O4" s="1">
-        <f>_xlfn.STDEV.S(G2:G102)</f>
+        <f t="shared" si="1"/>
         <v>0.66532976989741588</v>
       </c>
     </row>
@@ -4314,27 +4872,27 @@
         <v>14</v>
       </c>
       <c r="J5">
-        <f>MIN(B2:B102)</f>
+        <f t="shared" ref="J5:O5" si="2">MIN(B2:B102)</f>
         <v>32.124422969999998</v>
       </c>
       <c r="K5">
-        <f>MIN(C2:C102)</f>
+        <f t="shared" si="2"/>
         <v>9.7955170949999992</v>
       </c>
       <c r="L5">
-        <f>MIN(D2:D102)</f>
+        <f t="shared" si="2"/>
         <v>1.4734450000000001E-3</v>
       </c>
       <c r="M5">
-        <f>MIN(E2:E102)</f>
+        <f t="shared" si="2"/>
         <v>-3.9014030850000001</v>
       </c>
       <c r="N5">
-        <f>MIN(F2:F102)</f>
+        <f t="shared" si="2"/>
         <v>4.2684899999999998E-3</v>
       </c>
       <c r="O5">
-        <f>MIN(G2:G102)</f>
+        <f t="shared" si="2"/>
         <v>5.0802558209999997</v>
       </c>
     </row>
@@ -4364,27 +4922,27 @@
         <v>15</v>
       </c>
       <c r="J6">
-        <f>MAX(B2:B102)</f>
+        <f t="shared" ref="J6:O6" si="3">MAX(B2:B102)</f>
         <v>238.58333329999999</v>
       </c>
       <c r="K6">
-        <f>MAX(C2:C102)</f>
+        <f t="shared" si="3"/>
         <v>98.529045269999997</v>
       </c>
       <c r="L6">
-        <f>MAX(D2:D102)</f>
+        <f t="shared" si="3"/>
         <v>0.129902136</v>
       </c>
       <c r="M6">
-        <f>MAX(E2:E102)</f>
+        <f t="shared" si="3"/>
         <v>4.0084447929999998</v>
       </c>
       <c r="N6">
-        <f>MAX(F2:F102)</f>
+        <f t="shared" si="3"/>
         <v>0.111302331</v>
       </c>
       <c r="O6">
-        <f>MAX(G2:G102)</f>
+        <f t="shared" si="3"/>
         <v>7.9369336690000001</v>
       </c>
     </row>
@@ -5674,359 +6232,6 @@
       </c>
       <c r="G62">
         <v>6.3450653920000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625A66B9-6A59-4D5C-9B0E-A13454B3FBC1}">
-  <dimension ref="B1:J19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>220.31252325247533</v>
-      </c>
-      <c r="D3">
-        <v>36.577593059801991</v>
-      </c>
-      <c r="E3">
-        <v>2.0793641405940592E-2</v>
-      </c>
-      <c r="F3">
-        <v>-1.3472470102079208</v>
-      </c>
-      <c r="G3">
-        <v>2.5735327217821787E-2</v>
-      </c>
-      <c r="H3">
-        <v>6.3199488411089124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>9.6062635920609356</v>
-      </c>
-      <c r="D4">
-        <v>6.8443774692064547</v>
-      </c>
-      <c r="E4">
-        <v>7.1231097413445126E-3</v>
-      </c>
-      <c r="F4">
-        <v>0.64343294372730697</v>
-      </c>
-      <c r="G4">
-        <v>1.0486921388075473E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.4100583486754098</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>199.4109402</v>
-      </c>
-      <c r="D5">
-        <v>19.55017556</v>
-      </c>
-      <c r="E5">
-        <v>5.8435359999999999E-3</v>
-      </c>
-      <c r="F5">
-        <v>-3.0882085340000001</v>
-      </c>
-      <c r="G5">
-        <v>9.3671710000000005E-3</v>
-      </c>
-      <c r="H5">
-        <v>5.3668957439999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>238.67970650000001</v>
-      </c>
-      <c r="D6">
-        <v>51.95383734</v>
-      </c>
-      <c r="E6">
-        <v>3.9855784999999998E-2</v>
-      </c>
-      <c r="F6">
-        <v>-0.309577353</v>
-      </c>
-      <c r="G6">
-        <v>6.1823615999999998E-2</v>
-      </c>
-      <c r="H6">
-        <v>7.0313963570000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>168.16508614409835</v>
-      </c>
-      <c r="D9">
-        <v>46.841494766311477</v>
-      </c>
-      <c r="E9">
-        <v>3.6333422114754099E-2</v>
-      </c>
-      <c r="F9">
-        <v>-0.66848496393442591</v>
-      </c>
-      <c r="G9">
-        <v>1.4834772983606555E-2</v>
-      </c>
-      <c r="H9">
-        <v>6.9887774828688531</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>49.345003293072111</v>
-      </c>
-      <c r="D10">
-        <v>17.734236503436822</v>
-      </c>
-      <c r="E10">
-        <v>2.6323324107703418E-2</v>
-      </c>
-      <c r="F10">
-        <v>1.4044556696001986</v>
-      </c>
-      <c r="G10">
-        <v>1.5566825766152164E-2</v>
-      </c>
-      <c r="H10">
-        <v>0.66532976989741588</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5">
-        <v>32.124422969999998</v>
-      </c>
-      <c r="D11" s="5">
-        <v>9.7955170949999992</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1.4734450000000001E-3</v>
-      </c>
-      <c r="F11">
-        <v>-3.9014030850000001</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4.2684899999999998E-3</v>
-      </c>
-      <c r="H11">
-        <v>5.0802558209999997</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>238.58333329999999</v>
-      </c>
-      <c r="D12" s="7">
-        <v>98.529045269999997</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.129902136</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.0084447929999998</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.111302331</v>
-      </c>
-      <c r="H12" s="6">
-        <v>7.9369336690000001</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>204.88755248166672</v>
-      </c>
-      <c r="D16">
-        <v>40.441674293236083</v>
-      </c>
-      <c r="E16">
-        <v>2.6651996226697498E-2</v>
-      </c>
-      <c r="F16">
-        <v>-1.0234504208746049</v>
-      </c>
-      <c r="G16">
-        <v>2.9218358144518813E-2</v>
-      </c>
-      <c r="H16">
-        <v>6.4077720734649208</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>41.934595163706291</v>
-      </c>
-      <c r="D17">
-        <v>13.076179665715101</v>
-      </c>
-      <c r="E17">
-        <v>1.8410123033131477E-2</v>
-      </c>
-      <c r="F17">
-        <v>2.0673210986120827</v>
-      </c>
-      <c r="G17">
-        <v>3.3911885807401038E-2</v>
-      </c>
-      <c r="H17">
-        <v>0.62422013588204472</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3">
-        <v>40.9332785119731</v>
-      </c>
-      <c r="D18" s="3">
-        <v>19.55017556</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5.8435359999999999E-3</v>
-      </c>
-      <c r="F18">
-        <v>-4.5844188330897904</v>
-      </c>
-      <c r="G18" s="4">
-        <v>4.3961469518238898E-3</v>
-      </c>
-      <c r="H18">
-        <v>4.8432405564219696</v>
-      </c>
-      <c r="J18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>238.67970650000001</v>
-      </c>
-      <c r="D19" s="4">
-        <v>96.679697068313601</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.12567859371290599</v>
-      </c>
-      <c r="F19" s="5">
-        <v>12.0185867971747</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.24332718138746501</v>
-      </c>
-      <c r="H19" s="4">
-        <v>7.9084718864582504</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
